--- a/medicine/Mort/Cimetière_nouveau_de_Neuilly-sur-Seine/Cimetière_nouveau_de_Neuilly-sur-Seine.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Neuilly-sur-Seine/Cimetière_nouveau_de_Neuilly-sur-Seine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau de Neuilly-sur-Seine est un cimetière communal dont l'entrée se trouve 40, rue de Vimy à Nanterre dans le département des Hauts-de-Seine[1]. Il est situé sur le territoire de la commune de Puteaux, mais l'entrée située de ce côté a été fermée à la suite du réaménagement au pied de la Grande Arche de La Défense[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau de Neuilly-sur-Seine est un cimetière communal dont l'entrée se trouve 40, rue de Vimy à Nanterre dans le département des Hauts-de-Seine. Il est situé sur le territoire de la commune de Puteaux, mais l'entrée située de ce côté a été fermée à la suite du réaménagement au pied de la Grande Arche de La Défense.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son architecte est Édouard Guiard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son architecte est Édouard Guiard.
 </t>
         </is>
       </c>
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Neuilly-sur-Seine</t>
+          <t>Cimetière_nouveau_de_Neuilly-sur-Seine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Aimone (1860-1922), artiste (division 1) ;
 Grégoire Aslan (1908-1982), comédien ;
@@ -622,7 +640,7 @@
 Louis Vallet (1856-1935), peintre (division 1).
 Alexandre Glazounov avait été inhumé dans ce cimetière, mais sa dépouille a été rapatriée en 1973 au cimetière Tikhvine de Saint-Pétersbourg.
 Les dépouilles de Fernand Sardou et de son épouse Jackie Sardou, après avoir été inhumées dans 19e division du cimetière, ont été transférées en 2006 à Cannes au cimetière du Grand Jas.
-On y trouve de plus un mausolée de l'American Legion[4].
+On y trouve de plus un mausolée de l'American Legion.
 </t>
         </is>
       </c>
